--- a/banco/dados_ph_excel.xlsx
+++ b/banco/dados_ph_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,1356 @@
         <v>6.85</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:22:47</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:22:50</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:22:53</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:22:56</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:22:59</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:02</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:06</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:09</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:12</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:15</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:18</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:21</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:24</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:27</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:30</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:33</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:36</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:39</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:42</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:45</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:48</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:51</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:54</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:23:57</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:01</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:04</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:07</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:10</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:13</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:16</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:19</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:22</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:25</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:28</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:31</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:34</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:37</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:43</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:46</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:50</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:53</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:56</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>8.390000000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:24:59</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:25:02</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:25:05</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:25:08</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:25:11</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:29</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:32</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:36</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:39</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:42</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:45</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:48</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:51</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:56</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:33:59</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:03</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:06</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:09</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:12</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:15</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:18</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:21</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:24</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:27</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:30</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:33</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:36</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:40</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:43</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:46</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:49</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:52</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:55</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:34:58</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:35:01</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:35:04</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:35:07</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:35:10</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:35:14</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:35:17</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:37</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:40</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:43</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:46</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:49</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:52</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:55</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:38:58</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:01</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:05</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:08</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:11</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:17</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:20</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:24</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:27</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:30</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:33</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:36</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:39</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:42</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:45</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:48</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:51</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:54</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:39:57</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:00</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:03</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:06</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:09</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:13</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:16</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:19</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:22</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:25</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:28</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:31</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:34</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:37</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:40</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:43</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:46</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:49</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:52</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:56</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:40:59</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:41:02</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:41:05</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:41:08</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:41:11</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:41:14</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco/dados_ph_excel.xlsx
+++ b/banco/dados_ph_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,6 +2485,1466 @@
         <v>6.71</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:07:47</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:07:51</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:07:54</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:07:57</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:03</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:06</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:09</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:12</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:15</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:19</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:22</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:25</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:28</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:37</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:40</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:43</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:49</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:54</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:08:57</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:04</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:07</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:10</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:13</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:16</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:19</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:22</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:25</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:28</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:31</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:35</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:38</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:41</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:44</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:47</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:51</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:54</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:09:57</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:03</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:06</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:09</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:13</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:16</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:19</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:22</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:25</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:29</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:32</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:35</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:38</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:41</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:44</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:47</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:50</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:53</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:10:56</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:11:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:11:03</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:11:06</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:11:09</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:11:12</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:45:46</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:45:50</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:45:53</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:45:56</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:45:59</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:02</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:05</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:08</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:11</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:14</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:17</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:20</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:24</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:27</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:30</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:33</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:36</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:39</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:42</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:45</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:48</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:51</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:54</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:46:57</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:04</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:07</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:10</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:13</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:16</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:19</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:22</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:25</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-08-10 21:47:28</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:01:59</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:02</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:05</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:08</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:12</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:15</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:18</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:21</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:24</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:27</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:30</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:33</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:36</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:39</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:42</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:45</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:48</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:51</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:55</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:02:58</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:01</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:04</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:07</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:10</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:13</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:16</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:19</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:22</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:25</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:28</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:31</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:34</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:38</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:41</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:44</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:47</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:50</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:53</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:56</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:03:59</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:02</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:05</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:08</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:11</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:15</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:18</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:21</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:24</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:04:27</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
